--- a/Longtan site lithic data-Quina scrapers.xlsx
+++ b/Longtan site lithic data-Quina scrapers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭发掘Quina标本数据-2023.8\LT石制品数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07924B23-7C62-406F-BFDF-7DA61B7405F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C858E0-CE3C-4B7B-A15C-FA6531783219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Size&amp;Typo" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="162">
   <si>
     <t>19YHL-T2-3-L3:170</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,14 +429,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Basalt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Andsite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Platform</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -817,6 +809,9 @@
     <t>Concave convergent scraper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>trachyte</t>
+  </si>
 </sst>
 </file>
 
@@ -913,7 +908,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -977,6 +972,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,46 +1340,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,6 +1364,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,10 +1376,55 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2117,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B5DB3-51E7-4BDF-9A14-6B98C314CC2C}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45"/>
@@ -2199,8 +2212,8 @@
         <f>22.67+25.85+10.39+20.35+15.33+17.38+16.68+44.6+25.14</f>
         <v>198.39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>101</v>
+      <c r="G3" s="83" t="s">
+        <v>161</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
@@ -2229,8 +2242,8 @@
         <f>17.9+12.3+5.68+8.44+12.13+6.68+9.92+28.7+10.56+38.82+8.81</f>
         <v>159.94</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>101</v>
+      <c r="G4" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>1</v>
@@ -2259,8 +2272,8 @@
         <f>11.47+5.43+9.12+19.5+14.57+11.24+7.79+31.98+23.78+14.64</f>
         <v>149.51999999999998</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>101</v>
+      <c r="G5" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>9</v>
@@ -2289,8 +2302,8 @@
         <f>20.63+7.84+6+23.83+7.97+11.96+8.89+14.28+14.71+18.85+5.48+26.11+12.5</f>
         <v>179.04999999999995</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>101</v>
+      <c r="G6" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>9</v>
@@ -2319,8 +2332,8 @@
         <f>21.57+25.22+25.03+9.8+13.35+20.65+27.74+9.14</f>
         <v>152.5</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>101</v>
+      <c r="G7" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>1</v>
@@ -2349,8 +2362,8 @@
         <f>28.76+38+39.08+31.33+20.4</f>
         <v>157.57000000000002</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>101</v>
+      <c r="G8" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>1</v>
@@ -2382,8 +2395,8 @@
         <f>11.85+5.34+5.94+7.73+6.4+12.35+4.96+9.43+18.3+35.57+28.27</f>
         <v>146.14000000000001</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>101</v>
+      <c r="G9" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>1</v>
@@ -2412,8 +2425,8 @@
         <f>45.4+44+11.51+40+5.74</f>
         <v>146.65000000000003</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>101</v>
+      <c r="G10" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>1</v>
@@ -2442,8 +2455,8 @@
         <f>52.3+17.9+23.04+45+22.3+55.46</f>
         <v>216</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
+      <c r="G11" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>1</v>
@@ -2472,8 +2485,8 @@
         <f>22.37+24.79+10.84+15.32+27.7</f>
         <v>101.02</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>101</v>
+      <c r="G12" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>1</v>
@@ -2502,8 +2515,8 @@
         <f>50.8+39.16+29.13+46.1</f>
         <v>165.19</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>102</v>
+      <c r="G13" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>1</v>
@@ -2532,8 +2545,8 @@
         <f>28.93+18.42+18+10.3+11.43+12.66</f>
         <v>99.739999999999981</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>101</v>
+      <c r="G14" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>9</v>
@@ -2562,8 +2575,8 @@
         <f>25.62+19.54+26.28+5.84+9.06+8.04+47.88+20.88</f>
         <v>163.13999999999999</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>101</v>
+      <c r="G15" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>1</v>
@@ -2592,8 +2605,8 @@
         <f>23.07+24.4+5.72+13.24+14.07+33.05</f>
         <v>113.55</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>101</v>
+      <c r="G16" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>1</v>
@@ -2622,8 +2635,8 @@
         <f>18.98+10.69+10.19+11.96+11.5+9.69+12.82+30.35+9.2</f>
         <v>125.38000000000001</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>101</v>
+      <c r="G17" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>1</v>
@@ -2652,8 +2665,8 @@
         <f>16.11+20.48+10.99+8.4+8.89+34.78+6.97+8.58+21.08</f>
         <v>136.28</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>101</v>
+      <c r="G18" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>9</v>
@@ -2682,8 +2695,8 @@
         <f>29.6+29.63+6.38+22.95+10.95+10.7+18.7+19.88+19.15+26.19</f>
         <v>194.13</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>101</v>
+      <c r="G19" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>9</v>
@@ -2712,8 +2725,8 @@
         <f>18.2+8.02+15+6.41+29.92+41.88</f>
         <v>119.43</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>101</v>
+      <c r="G20" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>9</v>
@@ -2742,8 +2755,8 @@
         <f>35.22+34.26+20.78+33.66+29.58</f>
         <v>153.5</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>101</v>
+      <c r="G21" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>1</v>
@@ -2772,8 +2785,8 @@
         <f>20.07+14.79+16.48+8.29+16.83+14.27+15.57+24.61+19.42+13.44+20.76+25.88</f>
         <v>210.41000000000003</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>101</v>
+      <c r="G22" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>1</v>
@@ -2802,8 +2815,8 @@
         <f>47.73+32.9+29.43+20.19</f>
         <v>130.25</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>101</v>
+      <c r="G23" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>1</v>
@@ -2832,8 +2845,8 @@
         <f>44.51+30.22+44.2+26.71</f>
         <v>145.63999999999999</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>101</v>
+      <c r="G24" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>9</v>
@@ -2862,8 +2875,8 @@
         <f>57.44+42.14+16.28+25.74+51.86</f>
         <v>193.45999999999998</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>101</v>
+      <c r="G25" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>1</v>
@@ -2892,8 +2905,8 @@
         <f>9.19+15.01+13.92+17.54+13.41+27.76+16.08+9.98+17.04</f>
         <v>139.93</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>101</v>
+      <c r="G26" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>1</v>
@@ -2922,8 +2935,8 @@
         <f>12.14+45.71+9.41+27.34+16.3+18.58+40.57+16.04</f>
         <v>186.09</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>101</v>
+      <c r="G27" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>9</v>
@@ -2952,8 +2965,8 @@
         <f>21.23+24.51+4.41+11.7+7.37+10.86+7.04+10.81+21.15+7.21+15.85+9.93</f>
         <v>152.07000000000002</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>102</v>
+      <c r="G28" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>9</v>
@@ -2982,8 +2995,8 @@
         <f>39.83+14.69+29.78+18.18+24.9+42.05+24.39</f>
         <v>193.82</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>101</v>
+      <c r="G29" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>9</v>
@@ -3012,8 +3025,8 @@
         <f>34.35+64.79+6+70.33</f>
         <v>175.47000000000003</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>101</v>
+      <c r="G30" s="84" t="s">
+        <v>161</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>9</v>
@@ -3042,8 +3055,8 @@
         <f>29.24+21.27+13.33+17.52+10.42+8.58+5.14+16.75</f>
         <v>122.25</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>101</v>
+      <c r="G31" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>45</v>
@@ -3072,8 +3085,8 @@
         <f>13.37+32.38+13.62+21.92+11.84+24.76+20.38</f>
         <v>138.27000000000001</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>101</v>
+      <c r="G32" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>45</v>
@@ -3102,8 +3115,8 @@
         <f>31.24+10.53+21.72+5.98+8.82+7.73+7+9+14.27+14.07+10.7</f>
         <v>141.05999999999997</v>
       </c>
-      <c r="G33" s="10" t="s">
-        <v>101</v>
+      <c r="G33" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>9</v>
@@ -3132,19 +3145,19 @@
         <f>28.59+12.53+16.25+39.89+49.18</f>
         <v>146.44</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>101</v>
+      <c r="G34" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>45</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B35" s="11">
         <v>43.29</v>
@@ -3162,8 +3175,8 @@
         <f>30.72+39.01+42.99</f>
         <v>112.72</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>101</v>
+      <c r="G35" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>45</v>
@@ -3192,8 +3205,8 @@
         <f>50.72+18.17+45.26+37.92</f>
         <v>152.07</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>101</v>
+      <c r="G36" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H36" s="11" t="s">
         <v>48</v>
@@ -3222,8 +3235,8 @@
         <f>26.18+33.79+24.82+25.97</f>
         <v>110.75999999999999</v>
       </c>
-      <c r="G37" s="10" t="s">
-        <v>161</v>
+      <c r="G37" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>48</v>
@@ -3252,8 +3265,8 @@
         <f>35.19+20.43+22.03+40.16</f>
         <v>117.81</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>101</v>
+      <c r="G38" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>48</v>
@@ -3282,8 +3295,8 @@
         <f>43.56+58.46+51.13</f>
         <v>153.15</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>101</v>
+      <c r="G39" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>48</v>
@@ -3312,8 +3325,8 @@
         <f>29.06+15.48+34.56+33.56</f>
         <v>112.66</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>101</v>
+      <c r="G40" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H40" s="11" t="s">
         <v>48</v>
@@ -3342,8 +3355,8 @@
         <f>16.29+12.74+24.19+26.3+16.71</f>
         <v>96.22999999999999</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>101</v>
+      <c r="G41" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>48</v>
@@ -3372,8 +3385,8 @@
         <f>35.25+18.75+22.5+9.36+30.71+18.39</f>
         <v>134.95999999999998</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>101</v>
+      <c r="G42" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>48</v>
@@ -3402,8 +3415,8 @@
         <f>27.48+21.76+30.81+27.62</f>
         <v>107.67</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>101</v>
+      <c r="G43" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>48</v>
@@ -3432,14 +3445,14 @@
         <f>18.16+18.64+25.23+26.4+29.03</f>
         <v>117.46000000000001</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>161</v>
+      <c r="G44" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -3462,8 +3475,8 @@
         <f>30.46+58.67+50.59</f>
         <v>139.72</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>101</v>
+      <c r="G45" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>48</v>
@@ -3492,8 +3505,8 @@
         <f>27.32+34.88+20.58+22.3+26.65+32.15</f>
         <v>163.88</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>101</v>
+      <c r="G46" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>48</v>
@@ -3522,8 +3535,8 @@
         <f>36.28+25.98+34.71+9</f>
         <v>105.97</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>101</v>
+      <c r="G47" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>48</v>
@@ -3552,8 +3565,8 @@
         <f>42.18+13.52+45.91</f>
         <v>101.61</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>161</v>
+      <c r="G48" s="85" t="s">
+        <v>159</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>48</v>
@@ -3582,8 +3595,8 @@
         <f>47.14+41.01+14.57+40.69</f>
         <v>143.41</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>101</v>
+      <c r="G49" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>48</v>
@@ -3613,7 +3626,7 @@
         <v>107.66</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>48</v>
@@ -3642,8 +3655,8 @@
         <f>43.63+35.26+28.12+20.35</f>
         <v>127.36000000000001</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>101</v>
+      <c r="G51" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>48</v>
@@ -3672,8 +3685,8 @@
         <f>31.93+47.28+23.45+49.16+26.91</f>
         <v>178.73</v>
       </c>
-      <c r="G52" s="10" t="s">
-        <v>101</v>
+      <c r="G52" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>48</v>
@@ -3702,8 +3715,8 @@
         <f>30.35+38.4+24.81+12.8+25.14+21.02</f>
         <v>152.52000000000001</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>101</v>
+      <c r="G53" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>48</v>
@@ -3732,8 +3745,8 @@
         <f>43.65+18.72+33.92+18.98+23.3</f>
         <v>138.57</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>101</v>
+      <c r="G54" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>48</v>
@@ -3762,8 +3775,8 @@
         <f>28.92+38.26+37.32</f>
         <v>104.5</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>101</v>
+      <c r="G55" s="86" t="s">
+        <v>161</v>
       </c>
       <c r="H55" s="18" t="s">
         <v>48</v>
@@ -3819,21 +3832,21 @@
         <v>91</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="48"/>
       <c r="I1" s="54" t="s">
         <v>69</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
@@ -3841,35 +3854,35 @@
     <row r="2" spans="1:12" s="33" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="46"/>
       <c r="B2" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="31" t="s">
-        <v>110</v>
-      </c>
       <c r="H2" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="57" t="s">
         <v>114</v>
-      </c>
-      <c r="K2" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="57" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="33" customFormat="1" ht="21.65" customHeight="1">
@@ -3880,7 +3893,7 @@
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
       <c r="G3" s="31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="56"/>
@@ -4043,7 +4056,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>75</v>
@@ -4715,7 +4728,7 @@
     </row>
     <row r="36" spans="1:27" s="11" customFormat="1" ht="18.45">
       <c r="A36" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>74</v>
@@ -6709,7 +6722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6BE47-4A50-4C52-B253-56BD6042B30C}">
   <dimension ref="A1:BN807"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="AG1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AS28" sqref="AS28"/>
     </sheetView>
   </sheetViews>
@@ -6749,77 +6762,77 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" s="59"/>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="59"/>
-      <c r="AV1" s="59"/>
-      <c r="AW1" s="59"/>
-      <c r="AX1" s="59"/>
-      <c r="AY1" s="59"/>
-      <c r="AZ1" s="59"/>
-      <c r="BA1" s="59"/>
-      <c r="BB1" s="59"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="59"/>
-      <c r="BE1" s="59"/>
-      <c r="BF1" s="59"/>
-      <c r="BG1" s="59"/>
-      <c r="BH1" s="59"/>
-      <c r="BI1" s="59"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
     </row>
     <row r="2" spans="1:66" s="36" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A2" s="46"/>
-      <c r="B2" s="58" t="s">
-        <v>123</v>
+      <c r="B2" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -6833,7 +6846,7 @@
       <c r="L2" s="51"/>
       <c r="M2" s="51"/>
       <c r="N2" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
@@ -6842,8 +6855,8 @@
       <c r="S2" s="46"/>
       <c r="T2" s="46"/>
       <c r="U2" s="46"/>
-      <c r="V2" s="58" t="s">
-        <v>123</v>
+      <c r="V2" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="W2" s="51"/>
       <c r="X2" s="51"/>
@@ -6857,7 +6870,7 @@
       <c r="AF2" s="51"/>
       <c r="AG2" s="51"/>
       <c r="AH2" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AI2" s="46"/>
       <c r="AJ2" s="46"/>
@@ -6866,8 +6879,8 @@
       <c r="AM2" s="46"/>
       <c r="AN2" s="46"/>
       <c r="AO2" s="46"/>
-      <c r="AP2" s="58" t="s">
-        <v>123</v>
+      <c r="AP2" s="59" t="s">
+        <v>121</v>
       </c>
       <c r="AQ2" s="51"/>
       <c r="AR2" s="51"/>
@@ -6881,7 +6894,7 @@
       <c r="AZ2" s="51"/>
       <c r="BA2" s="51"/>
       <c r="BB2" s="46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BC2" s="46"/>
       <c r="BD2" s="46"/>
@@ -6893,12 +6906,12 @@
     </row>
     <row r="3" spans="1:66" s="36" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A3" s="46"/>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="51"/>
@@ -6916,21 +6929,21 @@
         <v>95</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
-      <c r="V3" s="58"/>
+      <c r="V3" s="59"/>
       <c r="W3" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X3" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y3" s="51"/>
       <c r="Z3" s="51"/>
@@ -6948,21 +6961,21 @@
         <v>95</v>
       </c>
       <c r="AJ3" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AK3" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AL3" s="46"/>
       <c r="AM3" s="46"/>
       <c r="AN3" s="46"/>
       <c r="AO3" s="46"/>
-      <c r="AP3" s="58"/>
+      <c r="AP3" s="59"/>
       <c r="AQ3" s="51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AR3" s="51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AS3" s="51"/>
       <c r="AT3" s="51"/>
@@ -6980,10 +6993,10 @@
         <v>95</v>
       </c>
       <c r="BD3" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BE3" s="46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="BF3" s="46"/>
       <c r="BG3" s="46"/>
@@ -6992,17 +7005,17 @@
     </row>
     <row r="4" spans="1:66" s="36" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="46"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="51"/>
       <c r="D4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="51"/>
       <c r="K4" s="51"/>
@@ -7018,19 +7031,19 @@
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
       <c r="U4" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="58"/>
+        <v>116</v>
+      </c>
+      <c r="V4" s="59"/>
       <c r="W4" s="51"/>
       <c r="X4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Y4" s="51"/>
       <c r="Z4" s="51"/>
       <c r="AA4" s="51"/>
       <c r="AB4" s="51"/>
       <c r="AC4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD4" s="51"/>
       <c r="AE4" s="51"/>
@@ -7046,19 +7059,19 @@
       <c r="AM4" s="46"/>
       <c r="AN4" s="46"/>
       <c r="AO4" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP4" s="58"/>
+        <v>116</v>
+      </c>
+      <c r="AP4" s="59"/>
       <c r="AQ4" s="51"/>
       <c r="AR4" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="51"/>
       <c r="AT4" s="51"/>
       <c r="AU4" s="51"/>
       <c r="AV4" s="51"/>
       <c r="AW4" s="51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AX4" s="51"/>
       <c r="AY4" s="51"/>
@@ -7074,153 +7087,153 @@
       <c r="BG4" s="46"/>
       <c r="BH4" s="46"/>
       <c r="BI4" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:66" s="36" customFormat="1" ht="12.65" customHeight="1">
       <c r="A5" s="46"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="51"/>
       <c r="D5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="H5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="M5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N5" s="46"/>
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S5" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T5" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="U5" s="46"/>
-      <c r="V5" s="58"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="51"/>
       <c r="X5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Y5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="Z5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="AB5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AE5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="AG5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AH5" s="46"/>
       <c r="AI5" s="46"/>
       <c r="AJ5" s="46"/>
       <c r="AK5" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AL5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AM5" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AN5" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AO5" s="46"/>
-      <c r="AP5" s="58"/>
+      <c r="AP5" s="59"/>
       <c r="AQ5" s="51"/>
       <c r="AR5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AT5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="AV5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AW5" s="32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AX5" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY5" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="AY5" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ5" s="32" t="s">
-        <v>135</v>
-      </c>
       <c r="BA5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BB5" s="46"/>
       <c r="BC5" s="46"/>
       <c r="BD5" s="46"/>
       <c r="BE5" s="30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BG5" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BH5" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BI5" s="46"/>
     </row>
@@ -7229,7 +7242,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="15">
         <v>3</v>
@@ -7355,7 +7368,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="11">
         <v>3</v>
@@ -7461,7 +7474,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="11">
         <v>3</v>
@@ -7526,7 +7539,7 @@
         <v>51</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W8" s="11">
         <v>3</v>
@@ -7622,7 +7635,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="11">
         <v>4</v>
@@ -7687,7 +7700,7 @@
         <v>57</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W9" s="11">
         <v>4</v>
@@ -7787,7 +7800,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="11">
         <v>4</v>
@@ -7852,7 +7865,7 @@
         <v>54</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W10" s="11">
         <v>4</v>
@@ -7952,7 +7965,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="11">
         <v>2</v>
@@ -8050,7 +8063,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="11">
         <v>4</v>
@@ -8159,7 +8172,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="11">
         <v>4</v>
@@ -8224,7 +8237,7 @@
         <v>43</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W13" s="11">
         <v>3</v>
@@ -8324,7 +8337,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
@@ -8429,7 +8442,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="11">
         <v>3</v>
@@ -8535,7 +8548,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11">
         <v>4</v>
@@ -8644,7 +8657,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="11">
         <v>4</v>
@@ -8754,7 +8767,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="11">
         <v>3</v>
@@ -8860,7 +8873,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="11">
         <v>4</v>
@@ -8925,7 +8938,7 @@
         <v>47</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W19" s="11">
         <v>2</v>
@@ -9023,7 +9036,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="11">
         <v>4</v>
@@ -9133,7 +9146,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="11">
         <v>3</v>
@@ -9198,7 +9211,7 @@
         <v>68</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W21" s="11">
         <v>2</v>
@@ -9292,7 +9305,7 @@
         <v>44</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" s="11">
         <v>4</v>
@@ -9402,7 +9415,7 @@
         <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="11">
         <v>3</v>
@@ -9504,7 +9517,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="11">
         <v>2</v>
@@ -9605,7 +9618,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11">
         <v>4</v>
@@ -9670,7 +9683,7 @@
         <v>41</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W25" s="11">
         <v>2</v>
@@ -9768,7 +9781,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="11">
         <v>3</v>
@@ -9833,7 +9846,7 @@
         <v>54</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W26" s="11">
         <v>3</v>
@@ -9927,7 +9940,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="11">
         <v>4</v>
@@ -9992,7 +10005,7 @@
         <v>57</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W27" s="11">
         <v>3</v>
@@ -10090,7 +10103,7 @@
         <v>33</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C28" s="11">
         <v>4</v>
@@ -10154,7 +10167,7 @@
         <v>60</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W28" s="11">
         <v>3</v>
@@ -10251,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C29" s="11">
         <v>3</v>
@@ -10356,7 +10369,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C30" s="11">
         <v>4</v>
@@ -10466,7 +10479,7 @@
         <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="11">
         <v>4</v>
@@ -10576,7 +10589,7 @@
         <v>37</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C32" s="11">
         <v>3</v>
@@ -10641,7 +10654,7 @@
         <v>54</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W32" s="11">
         <v>3</v>
@@ -10703,7 +10716,7 @@
         <v>63</v>
       </c>
       <c r="AP32" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AQ32" s="11">
         <v>3</v>
@@ -10785,7 +10798,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C33" s="11">
         <v>3</v>
@@ -10849,7 +10862,7 @@
         <v>52</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W33" s="11">
         <v>4</v>
@@ -10911,7 +10924,7 @@
         <v>39</v>
       </c>
       <c r="AP33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AQ33" s="11">
         <v>3</v>
@@ -10997,7 +11010,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34" s="11">
         <v>3</v>
@@ -11103,7 +11116,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="11">
         <v>3</v>
@@ -11209,7 +11222,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="11">
         <v>4</v>
@@ -11319,7 +11332,7 @@
         <v>46</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="11">
         <v>4</v>
@@ -11418,10 +11431,10 @@
     </row>
     <row r="38" spans="1:66" s="11" customFormat="1" ht="18.45">
       <c r="A38" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C38" s="11">
         <v>3</v>
@@ -11519,7 +11532,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C39" s="11">
         <v>2</v>
@@ -11633,7 +11646,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="11">
         <v>2</v>
@@ -11725,7 +11738,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" s="11">
         <v>3</v>
@@ -11827,7 +11840,7 @@
         <v>51</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" s="11">
         <v>2</v>
@@ -11924,7 +11937,7 @@
         <v>52</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C43" s="11">
         <v>2</v>
@@ -11988,7 +12001,7 @@
         <v>69</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W43" s="11">
         <v>2</v>
@@ -12072,7 +12085,7 @@
         <v>53</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" s="11">
         <v>2</v>
@@ -12166,7 +12179,7 @@
         <v>54</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="11">
         <v>2</v>
@@ -12263,7 +12276,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="11">
         <v>2</v>
@@ -12360,7 +12373,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="11">
         <v>3</v>
@@ -12424,7 +12437,7 @@
         <v>61</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W47" s="11">
         <v>3</v>
@@ -12512,7 +12525,7 @@
         <v>57</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="11">
         <v>3</v>
@@ -12613,7 +12626,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C49" s="11">
         <v>2</v>
@@ -12678,7 +12691,7 @@
         <v>60</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W49" s="11">
         <v>2</v>
@@ -12762,7 +12775,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C50" s="11">
         <v>3</v>
@@ -12863,7 +12876,7 @@
         <v>60</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="11">
         <v>3</v>
@@ -12965,7 +12978,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="11">
         <v>2</v>
@@ -13062,7 +13075,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C53" s="11">
         <v>2</v>
@@ -13156,7 +13169,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C54" s="11">
         <v>2</v>
@@ -13253,7 +13266,7 @@
         <v>65</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C55" s="11">
         <v>2</v>
@@ -13317,7 +13330,7 @@
         <v>60</v>
       </c>
       <c r="V55" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W55" s="11">
         <v>2</v>
@@ -13401,7 +13414,7 @@
         <v>66</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" s="11">
         <v>2</v>
@@ -13495,7 +13508,7 @@
         <v>67</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="11">
         <v>2</v>
@@ -13590,7 +13603,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C58" s="18">
         <v>2</v>
@@ -26022,6 +26035,33 @@
     <row r="807" s="19" customFormat="1" ht="18.45"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AR4:AV4"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BD3:BD5"/>
+    <mergeCell ref="BE3:BI3"/>
+    <mergeCell ref="AW4:BA4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="V1:AO1"/>
@@ -26038,33 +26078,6 @@
     <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BD3:BD5"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="AW4:BA4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AQ2:BA2"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26113,199 +26126,199 @@
       <c r="A1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="63" t="s">
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="67" t="s">
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB1" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC1" s="60" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="76" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="36" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="46"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
-        <v>151</v>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66" t="s">
+        <v>149</v>
       </c>
       <c r="G2" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="69"/>
+      <c r="J2" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72"/>
       <c r="V2" s="52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="W2" s="52"/>
       <c r="X2" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z2" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="Y2" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z2" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="61"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="77"/>
     </row>
     <row r="3" spans="1:29" s="36" customFormat="1" ht="19" customHeight="1">
       <c r="A3" s="46"/>
       <c r="B3" s="48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D3" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="51"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="61"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K3" s="52"/>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
       <c r="N3" s="52" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
       <c r="Q3" s="52"/>
       <c r="R3" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="S3" s="52"/>
       <c r="T3" s="52"/>
       <c r="U3" s="52"/>
-      <c r="V3" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="W3" s="71" t="s">
-        <v>154</v>
+      <c r="V3" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" s="82" t="s">
+        <v>152</v>
       </c>
       <c r="X3" s="52"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="61"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="77"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
       <c r="A4" s="46"/>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="51"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="62"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U4" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
+        <v>135</v>
+      </c>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
       <c r="X4" s="52"/>
       <c r="Y4" s="52"/>
       <c r="Z4" s="52"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="62"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="78"/>
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="18.45">
       <c r="A5" s="1" t="s">
@@ -28376,7 +28389,7 @@
     </row>
     <row r="37" spans="1:29" s="11" customFormat="1" ht="18.45">
       <c r="A37" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" s="11">
         <f>Edge!P38/'Size&amp;Typo'!D35</f>
@@ -30890,15 +30903,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="AA1:AA4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="AC1:AC4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -30915,6 +30919,15 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="AA1:AA4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Longtan site lithic data-Quina scrapers.xlsx
+++ b/Longtan site lithic data-Quina scrapers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C858E0-CE3C-4B7B-A15C-FA6531783219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09CEF4-128E-4AD2-A107-5D5014C4BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Size&amp;Typo" sheetId="1" r:id="rId1"/>
@@ -1165,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,6 +1301,21 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,10 +1355,46 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,9 +1415,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1376,55 +1424,16 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2130,8 +2139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B5DB3-51E7-4BDF-9A14-6B98C314CC2C}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="18.45"/>
@@ -2149,26 +2158,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="45" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="50"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="46"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="31" t="s">
         <v>93</v>
       </c>
@@ -2184,7 +2193,7 @@
       <c r="F2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="46"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2221,7 @@
         <f>22.67+25.85+10.39+20.35+15.33+17.38+16.68+44.6+25.14</f>
         <v>198.39</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="46" t="s">
         <v>161</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -2242,7 +2251,7 @@
         <f>17.9+12.3+5.68+8.44+12.13+6.68+9.92+28.7+10.56+38.82+8.81</f>
         <v>159.94</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -2272,7 +2281,7 @@
         <f>11.47+5.43+9.12+19.5+14.57+11.24+7.79+31.98+23.78+14.64</f>
         <v>149.51999999999998</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H5" s="9" t="s">
@@ -2302,7 +2311,7 @@
         <f>20.63+7.84+6+23.83+7.97+11.96+8.89+14.28+14.71+18.85+5.48+26.11+12.5</f>
         <v>179.04999999999995</v>
       </c>
-      <c r="G6" s="84" t="s">
+      <c r="G6" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -2332,7 +2341,7 @@
         <f>21.57+25.22+25.03+9.8+13.35+20.65+27.74+9.14</f>
         <v>152.5</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -2362,7 +2371,7 @@
         <f>28.76+38+39.08+31.33+20.4</f>
         <v>157.57000000000002</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -2395,7 +2404,7 @@
         <f>11.85+5.34+5.94+7.73+6.4+12.35+4.96+9.43+18.3+35.57+28.27</f>
         <v>146.14000000000001</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H9" s="9" t="s">
@@ -2425,7 +2434,7 @@
         <f>45.4+44+11.51+40+5.74</f>
         <v>146.65000000000003</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -2455,7 +2464,7 @@
         <f>52.3+17.9+23.04+45+22.3+55.46</f>
         <v>216</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -2485,7 +2494,7 @@
         <f>22.37+24.79+10.84+15.32+27.7</f>
         <v>101.02</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -2515,7 +2524,7 @@
         <f>50.8+39.16+29.13+46.1</f>
         <v>165.19</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G13" s="48" t="s">
         <v>159</v>
       </c>
       <c r="H13" s="9" t="s">
@@ -2545,7 +2554,7 @@
         <f>28.93+18.42+18+10.3+11.43+12.66</f>
         <v>99.739999999999981</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -2575,7 +2584,7 @@
         <f>25.62+19.54+26.28+5.84+9.06+8.04+47.88+20.88</f>
         <v>163.13999999999999</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="9" t="s">
@@ -2605,7 +2614,7 @@
         <f>23.07+24.4+5.72+13.24+14.07+33.05</f>
         <v>113.55</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="9" t="s">
@@ -2635,7 +2644,7 @@
         <f>18.98+10.69+10.19+11.96+11.5+9.69+12.82+30.35+9.2</f>
         <v>125.38000000000001</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -2665,7 +2674,7 @@
         <f>16.11+20.48+10.99+8.4+8.89+34.78+6.97+8.58+21.08</f>
         <v>136.28</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -2695,7 +2704,7 @@
         <f>29.6+29.63+6.38+22.95+10.95+10.7+18.7+19.88+19.15+26.19</f>
         <v>194.13</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -2725,7 +2734,7 @@
         <f>18.2+8.02+15+6.41+29.92+41.88</f>
         <v>119.43</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="9" t="s">
@@ -2755,7 +2764,7 @@
         <f>35.22+34.26+20.78+33.66+29.58</f>
         <v>153.5</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -2785,7 +2794,7 @@
         <f>20.07+14.79+16.48+8.29+16.83+14.27+15.57+24.61+19.42+13.44+20.76+25.88</f>
         <v>210.41000000000003</v>
       </c>
-      <c r="G22" s="84" t="s">
+      <c r="G22" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -2815,7 +2824,7 @@
         <f>47.73+32.9+29.43+20.19</f>
         <v>130.25</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H23" s="9" t="s">
@@ -2845,7 +2854,7 @@
         <f>44.51+30.22+44.2+26.71</f>
         <v>145.63999999999999</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H24" s="9" t="s">
@@ -2875,7 +2884,7 @@
         <f>57.44+42.14+16.28+25.74+51.86</f>
         <v>193.45999999999998</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H25" s="9" t="s">
@@ -2905,7 +2914,7 @@
         <f>9.19+15.01+13.92+17.54+13.41+27.76+16.08+9.98+17.04</f>
         <v>139.93</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H26" s="9" t="s">
@@ -2935,7 +2944,7 @@
         <f>12.14+45.71+9.41+27.34+16.3+18.58+40.57+16.04</f>
         <v>186.09</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H27" s="9" t="s">
@@ -2965,7 +2974,7 @@
         <f>21.23+24.51+4.41+11.7+7.37+10.86+7.04+10.81+21.15+7.21+15.85+9.93</f>
         <v>152.07000000000002</v>
       </c>
-      <c r="G28" s="85" t="s">
+      <c r="G28" s="48" t="s">
         <v>159</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -2995,7 +3004,7 @@
         <f>39.83+14.69+29.78+18.18+24.9+42.05+24.39</f>
         <v>193.82</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H29" s="9" t="s">
@@ -3025,7 +3034,7 @@
         <f>34.35+64.79+6+70.33</f>
         <v>175.47000000000003</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="47" t="s">
         <v>161</v>
       </c>
       <c r="H30" s="9" t="s">
@@ -3055,7 +3064,7 @@
         <f>29.24+21.27+13.33+17.52+10.42+8.58+5.14+16.75</f>
         <v>122.25</v>
       </c>
-      <c r="G31" s="85" t="s">
+      <c r="G31" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H31" s="9" t="s">
@@ -3085,7 +3094,7 @@
         <f>13.37+32.38+13.62+21.92+11.84+24.76+20.38</f>
         <v>138.27000000000001</v>
       </c>
-      <c r="G32" s="85" t="s">
+      <c r="G32" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H32" s="11" t="s">
@@ -3115,7 +3124,7 @@
         <f>31.24+10.53+21.72+5.98+8.82+7.73+7+9+14.27+14.07+10.7</f>
         <v>141.05999999999997</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H33" s="11" t="s">
@@ -3145,7 +3154,7 @@
         <f>28.59+12.53+16.25+39.89+49.18</f>
         <v>146.44</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G34" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H34" s="11" t="s">
@@ -3175,7 +3184,7 @@
         <f>30.72+39.01+42.99</f>
         <v>112.72</v>
       </c>
-      <c r="G35" s="85" t="s">
+      <c r="G35" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H35" s="11" t="s">
@@ -3205,7 +3214,7 @@
         <f>50.72+18.17+45.26+37.92</f>
         <v>152.07</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H36" s="11" t="s">
@@ -3235,7 +3244,7 @@
         <f>26.18+33.79+24.82+25.97</f>
         <v>110.75999999999999</v>
       </c>
-      <c r="G37" s="85" t="s">
+      <c r="G37" s="48" t="s">
         <v>159</v>
       </c>
       <c r="H37" s="11" t="s">
@@ -3265,7 +3274,7 @@
         <f>35.19+20.43+22.03+40.16</f>
         <v>117.81</v>
       </c>
-      <c r="G38" s="85" t="s">
+      <c r="G38" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H38" s="11" t="s">
@@ -3295,7 +3304,7 @@
         <f>43.56+58.46+51.13</f>
         <v>153.15</v>
       </c>
-      <c r="G39" s="85" t="s">
+      <c r="G39" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H39" s="11" t="s">
@@ -3325,7 +3334,7 @@
         <f>29.06+15.48+34.56+33.56</f>
         <v>112.66</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G40" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H40" s="11" t="s">
@@ -3355,7 +3364,7 @@
         <f>16.29+12.74+24.19+26.3+16.71</f>
         <v>96.22999999999999</v>
       </c>
-      <c r="G41" s="85" t="s">
+      <c r="G41" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H41" s="11" t="s">
@@ -3385,7 +3394,7 @@
         <f>35.25+18.75+22.5+9.36+30.71+18.39</f>
         <v>134.95999999999998</v>
       </c>
-      <c r="G42" s="85" t="s">
+      <c r="G42" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H42" s="11" t="s">
@@ -3415,7 +3424,7 @@
         <f>27.48+21.76+30.81+27.62</f>
         <v>107.67</v>
       </c>
-      <c r="G43" s="85" t="s">
+      <c r="G43" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H43" s="11" t="s">
@@ -3445,7 +3454,7 @@
         <f>18.16+18.64+25.23+26.4+29.03</f>
         <v>117.46000000000001</v>
       </c>
-      <c r="G44" s="85" t="s">
+      <c r="G44" s="48" t="s">
         <v>159</v>
       </c>
       <c r="H44" s="11" t="s">
@@ -3475,7 +3484,7 @@
         <f>30.46+58.67+50.59</f>
         <v>139.72</v>
       </c>
-      <c r="G45" s="85" t="s">
+      <c r="G45" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H45" s="11" t="s">
@@ -3505,7 +3514,7 @@
         <f>27.32+34.88+20.58+22.3+26.65+32.15</f>
         <v>163.88</v>
       </c>
-      <c r="G46" s="85" t="s">
+      <c r="G46" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H46" s="11" t="s">
@@ -3535,7 +3544,7 @@
         <f>36.28+25.98+34.71+9</f>
         <v>105.97</v>
       </c>
-      <c r="G47" s="85" t="s">
+      <c r="G47" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H47" s="11" t="s">
@@ -3565,7 +3574,7 @@
         <f>42.18+13.52+45.91</f>
         <v>101.61</v>
       </c>
-      <c r="G48" s="85" t="s">
+      <c r="G48" s="48" t="s">
         <v>159</v>
       </c>
       <c r="H48" s="11" t="s">
@@ -3595,7 +3604,7 @@
         <f>47.14+41.01+14.57+40.69</f>
         <v>143.41</v>
       </c>
-      <c r="G49" s="85" t="s">
+      <c r="G49" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H49" s="11" t="s">
@@ -3655,7 +3664,7 @@
         <f>43.63+35.26+28.12+20.35</f>
         <v>127.36000000000001</v>
       </c>
-      <c r="G51" s="85" t="s">
+      <c r="G51" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H51" s="11" t="s">
@@ -3685,7 +3694,7 @@
         <f>31.93+47.28+23.45+49.16+26.91</f>
         <v>178.73</v>
       </c>
-      <c r="G52" s="85" t="s">
+      <c r="G52" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H52" s="11" t="s">
@@ -3715,7 +3724,7 @@
         <f>30.35+38.4+24.81+12.8+25.14+21.02</f>
         <v>152.52000000000001</v>
       </c>
-      <c r="G53" s="85" t="s">
+      <c r="G53" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H53" s="11" t="s">
@@ -3745,7 +3754,7 @@
         <f>43.65+18.72+33.92+18.98+23.3</f>
         <v>138.57</v>
       </c>
-      <c r="G54" s="85" t="s">
+      <c r="G54" s="48" t="s">
         <v>161</v>
       </c>
       <c r="H54" s="11" t="s">
@@ -3775,7 +3784,7 @@
         <f>28.92+38.26+37.32</f>
         <v>104.5</v>
       </c>
-      <c r="G55" s="86" t="s">
+      <c r="G55" s="49" t="s">
         <v>161</v>
       </c>
       <c r="H55" s="18" t="s">
@@ -3804,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12B752F-B9A2-43CB-B896-3A979A37B657}">
-  <dimension ref="A1:AA742"/>
+  <dimension ref="A1:AB742"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" activeCellId="4" sqref="I35 I27 I23 I17:I19 I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6"/>
@@ -3819,89 +3828,92 @@
     <col min="5" max="5" width="12.85546875" style="34" customWidth="1"/>
     <col min="6" max="6" width="14.640625" style="34" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="34" customWidth="1"/>
-    <col min="8" max="8" width="8.640625" style="34"/>
-    <col min="9" max="9" width="12.140625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="34" customWidth="1"/>
-    <col min="11" max="11" width="12.35546875" style="34" customWidth="1"/>
-    <col min="12" max="12" width="15.35546875" style="34" customWidth="1"/>
-    <col min="13" max="16384" width="8.640625" style="34"/>
+    <col min="8" max="9" width="8.640625" style="34"/>
+    <col min="10" max="10" width="12.140625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.35546875" style="34" customWidth="1"/>
+    <col min="13" max="13" width="15.35546875" style="34" customWidth="1"/>
+    <col min="14" max="16384" width="8.640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="33" customFormat="1" ht="30.65" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:13" s="33" customFormat="1" ht="30.65" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="48" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="K1" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-    </row>
-    <row r="2" spans="1:12" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="53" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+    </row>
+    <row r="2" spans="1:13" s="33" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="58" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="55"/>
-      <c r="J2" s="52" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="L2" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="M2" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="33" customFormat="1" ht="21.65" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+    <row r="3" spans="1:13" s="33" customFormat="1" ht="21.65" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-    </row>
-    <row r="4" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="H3" s="53"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+    </row>
+    <row r="4" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3914,14 +3926,17 @@
         <v>70</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="15"/>
       <c r="K4" s="15"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="L4" s="15"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -3944,21 +3959,24 @@
         <v>70</v>
       </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>4.8499999999999996</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>37.93</v>
       </c>
-      <c r="L5" s="10">
-        <f t="shared" ref="L5:L56" si="0">J5/K5</f>
+      <c r="M5" s="10">
+        <f t="shared" ref="M5:M56" si="0">K5/L5</f>
         <v>0.12786712364882677</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="6" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -3970,10 +3988,13 @@
         <v>70</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I6" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -3985,10 +4006,13 @@
       <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -4011,10 +4035,13 @@
         <v>79</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I8" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -4037,21 +4064,24 @@
         <v>80</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>13.76</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>20.41</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>0.67417932386085255</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="10" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -4074,21 +4104,24 @@
         <v>70</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="11">
+      <c r="K10" s="11">
         <v>18.760000000000002</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <v>19.34</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <f t="shared" si="0"/>
         <v>0.97001034126163399</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="11" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -4100,10 +4133,13 @@
         <v>70</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="6"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I11" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="M11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -4115,12 +4151,15 @@
         <v>79</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -4132,21 +4171,24 @@
         <v>76</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J13" s="11">
+      <c r="K13" s="11">
         <v>21.95</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <v>22.35</v>
       </c>
-      <c r="L13" s="10">
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
         <v>0.98210290827740487</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -4158,12 +4200,15 @@
         <v>70</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -4186,12 +4231,15 @@
       <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
@@ -4203,19 +4251,22 @@
       <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="11">
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="11">
         <v>15.13</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <v>18.62</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <f t="shared" si="0"/>
         <v>0.81256713211600429</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="17" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -4227,21 +4278,24 @@
         <v>76</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="11">
+      <c r="K17" s="11">
         <v>3.16</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <v>36.15</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <f t="shared" si="0"/>
         <v>8.7413554633471655E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
@@ -4253,10 +4307,13 @@
         <v>76</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="6"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I18" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="M18" s="10"/>
+    </row>
+    <row r="19" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -4268,21 +4325,24 @@
         <v>76</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="11">
+      <c r="K19" s="11">
         <v>7.78</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <v>33.1</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <f t="shared" si="0"/>
         <v>0.23504531722054381</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="20" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
@@ -4305,21 +4365,24 @@
       <c r="H20" s="10">
         <v>1</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J20" s="11">
+      <c r="K20" s="11">
         <v>14</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <v>21.14</v>
       </c>
-      <c r="L20" s="10">
+      <c r="M20" s="10">
         <f t="shared" si="0"/>
         <v>0.66225165562913901</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="21" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
@@ -4342,19 +4405,20 @@
         <v>76</v>
       </c>
       <c r="H21" s="10"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="11">
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="11">
         <v>7.89</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <v>24.69</v>
       </c>
-      <c r="L21" s="10">
+      <c r="M21" s="10">
         <f t="shared" si="0"/>
         <v>0.31956257594167675</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="22" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
@@ -4366,19 +4430,22 @@
       <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="11">
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="11">
         <v>1.86</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <v>25.69</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <f t="shared" si="0"/>
         <v>7.24017127286882E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="23" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A23" s="9" t="s">
         <v>32</v>
       </c>
@@ -4401,19 +4468,22 @@
         <v>76</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="11">
+      <c r="I23" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="11">
         <v>12.76</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <v>26.39</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <f t="shared" si="0"/>
         <v>0.48351648351648352</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="24" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A24" s="9" t="s">
         <v>33</v>
       </c>
@@ -4425,19 +4495,22 @@
         <v>70</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="11">
+      <c r="I24" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="11">
         <v>2.08</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <v>54.13</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <f t="shared" si="0"/>
         <v>3.8426011453907262E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="25" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
@@ -4449,21 +4522,24 @@
         <v>70</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="11">
+      <c r="K25" s="11">
         <v>9.11</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <v>34.69</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <f t="shared" si="0"/>
         <v>0.2626117036609974</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="26" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A26" s="9" t="s">
         <v>35</v>
       </c>
@@ -4486,21 +4562,24 @@
         <v>79</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="11">
+      <c r="K26" s="11">
         <v>12.44</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <v>59.37</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="10">
         <f t="shared" si="0"/>
         <v>0.20953343439447533</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="27" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A27" s="9" t="s">
         <v>36</v>
       </c>
@@ -4512,21 +4591,24 @@
         <v>76</v>
       </c>
       <c r="H27" s="10"/>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="11">
+      <c r="K27" s="11">
         <v>6.03</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <v>24.84</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <f t="shared" si="0"/>
         <v>0.24275362318840582</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="28" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A28" s="9" t="s">
         <v>37</v>
       </c>
@@ -4538,10 +4620,13 @@
         <v>79</v>
       </c>
       <c r="H28" s="10"/>
-      <c r="I28" s="6"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I28" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A29" s="9" t="s">
         <v>39</v>
       </c>
@@ -4553,19 +4638,22 @@
       <c r="H29" s="10">
         <v>1</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="11">
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="11">
         <v>10.029999999999999</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <v>10.28</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <f t="shared" si="0"/>
         <v>0.97568093385214005</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="30" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A30" s="9" t="s">
         <v>40</v>
       </c>
@@ -4577,19 +4665,22 @@
       <c r="H30" s="10">
         <v>1</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="11">
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="11">
         <v>13.19</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <v>18.95</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <f t="shared" si="0"/>
         <v>0.69604221635883901</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="31" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A31" s="9" t="s">
         <v>42</v>
       </c>
@@ -4601,19 +4692,22 @@
         <v>80</v>
       </c>
       <c r="H31" s="10"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="11">
+      <c r="I31" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="11">
         <v>14.75</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <v>21.73</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <f t="shared" si="0"/>
         <v>0.67878508973768981</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="32" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A32" s="10" t="s">
         <v>43</v>
       </c>
@@ -4623,19 +4717,22 @@
       <c r="H32" s="10">
         <v>1</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="11">
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11">
         <v>11.55</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <v>12.06</v>
       </c>
-      <c r="L32" s="10">
+      <c r="M32" s="10">
         <f t="shared" si="0"/>
         <v>0.95771144278606968</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="18.45">
+    <row r="33" spans="1:28" ht="18.45">
       <c r="A33" s="10" t="s">
         <v>19</v>
       </c>
@@ -4648,11 +4745,13 @@
         <v>79</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="11"/>
+      <c r="I33" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J33" s="10"/>
       <c r="K33" s="11"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -4667,8 +4766,9 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
-    </row>
-    <row r="34" spans="1:27" ht="18.45">
+      <c r="AB33" s="11"/>
+    </row>
+    <row r="34" spans="1:28" ht="18.45">
       <c r="A34" s="10" t="s">
         <v>28</v>
       </c>
@@ -4681,11 +4781,13 @@
       <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="11"/>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10"/>
       <c r="K34" s="11"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
@@ -4700,8 +4802,9 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
-    </row>
-    <row r="35" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="AB34" s="11"/>
+    </row>
+    <row r="35" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A35" s="10" t="s">
         <v>46</v>
       </c>
@@ -4712,21 +4815,24 @@
         <v>76</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="11">
+      <c r="K35" s="11">
         <v>9.8699999999999992</v>
       </c>
-      <c r="K35" s="11">
+      <c r="L35" s="11">
         <v>31.06</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="0"/>
         <v>0.31777205408886028</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="36" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A36" s="10" t="s">
         <v>158</v>
       </c>
@@ -4749,21 +4855,24 @@
         <v>80</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J36" s="11">
+      <c r="K36" s="11">
         <v>14.73</v>
       </c>
-      <c r="K36" s="11">
+      <c r="L36" s="11">
         <v>25.46</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <f t="shared" si="0"/>
         <v>0.57855459544383347</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="37" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -4786,10 +4895,13 @@
         <v>70</v>
       </c>
       <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="I37" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="J37" s="10"/>
+      <c r="M37" s="10"/>
+    </row>
+    <row r="38" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A38" s="10" t="s">
         <v>50</v>
       </c>
@@ -4799,21 +4911,24 @@
       <c r="H38" s="10">
         <v>1</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="11">
+      <c r="K38" s="11">
         <v>8.49</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L38" s="11">
         <v>26.26</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="0"/>
         <v>0.3233054074638233</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="39" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A39" s="10" t="s">
         <v>49</v>
       </c>
@@ -4824,21 +4939,24 @@
         <v>80</v>
       </c>
       <c r="H39" s="10"/>
-      <c r="I39" s="10" t="s">
+      <c r="I39" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="11">
+      <c r="K39" s="11">
         <v>5.62</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="11">
         <v>23.91</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="0"/>
         <v>0.23504809703053117</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="40" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A40" s="10" t="s">
         <v>51</v>
       </c>
@@ -4848,12 +4966,15 @@
       <c r="H40" s="10">
         <v>1</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="10">
+        <v>0</v>
+      </c>
+      <c r="J40" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L40" s="10"/>
-    </row>
-    <row r="41" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="M40" s="10"/>
+    </row>
+    <row r="41" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A41" s="10" t="s">
         <v>52</v>
       </c>
@@ -4863,10 +4984,13 @@
       <c r="H41" s="10">
         <v>1</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="I41" s="10">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="M41" s="10"/>
+    </row>
+    <row r="42" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A42" s="10" t="s">
         <v>53</v>
       </c>
@@ -4876,12 +5000,15 @@
       <c r="H42" s="10">
         <v>1</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A43" s="10" t="s">
         <v>54</v>
       </c>
@@ -4903,21 +5030,24 @@
       <c r="H43" s="10">
         <v>1</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="10">
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="11">
+      <c r="K43" s="11">
         <v>13.83</v>
       </c>
-      <c r="K43" s="11">
+      <c r="L43" s="11">
         <v>16.98</v>
       </c>
-      <c r="L43" s="10">
+      <c r="M43" s="10">
         <f t="shared" si="0"/>
         <v>0.81448763250883394</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="44" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A44" s="10" t="s">
         <v>55</v>
       </c>
@@ -4927,21 +5057,24 @@
       <c r="H44" s="10">
         <v>1</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="10">
+        <v>0</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="11">
+      <c r="K44" s="11">
         <v>11.97</v>
       </c>
-      <c r="K44" s="11">
+      <c r="L44" s="11">
         <v>17.760000000000002</v>
       </c>
-      <c r="L44" s="10">
+      <c r="M44" s="10">
         <f t="shared" si="0"/>
         <v>0.67398648648648651</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="11" customFormat="1" ht="18.45">
+    <row r="45" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
@@ -4951,10 +5084,13 @@
       <c r="H45" s="10">
         <v>1</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="L45" s="10"/>
-    </row>
-    <row r="46" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
@@ -4965,12 +5101,15 @@
         <v>80</v>
       </c>
       <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
+      <c r="I46" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J46" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A47" s="10" t="s">
         <v>58</v>
       </c>
@@ -4992,10 +5131,13 @@
       <c r="H47" s="10">
         <v>1</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:27" s="11" customFormat="1" ht="18.45">
+      <c r="I47" s="10">
+        <v>0</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:28" s="11" customFormat="1" ht="18.45">
       <c r="A48" s="10" t="s">
         <v>59</v>
       </c>
@@ -5005,21 +5147,24 @@
       <c r="H48" s="10">
         <v>1</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="10">
+        <v>0</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J48" s="11">
+      <c r="K48" s="11">
         <v>5.24</v>
       </c>
-      <c r="K48" s="11">
+      <c r="L48" s="11">
         <v>12.77</v>
       </c>
-      <c r="L48" s="10">
+      <c r="M48" s="10">
         <f t="shared" si="0"/>
         <v>0.4103367267032107</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="49" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A49" s="10" t="s">
         <v>60</v>
       </c>
@@ -5029,21 +5174,24 @@
       <c r="H49" s="10">
         <v>1</v>
       </c>
-      <c r="I49" s="10" t="s">
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="11">
+      <c r="K49" s="11">
         <v>8.01</v>
       </c>
-      <c r="K49" s="11">
+      <c r="L49" s="11">
         <v>11.98</v>
       </c>
-      <c r="L49" s="10">
+      <c r="M49" s="10">
         <f t="shared" si="0"/>
         <v>0.6686143572621035</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="50" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A50" s="10" t="s">
         <v>61</v>
       </c>
@@ -5066,21 +5214,24 @@
         <v>79</v>
       </c>
       <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="J50" s="11">
+      <c r="K50" s="11">
         <v>23.53</v>
       </c>
-      <c r="K50" s="11">
+      <c r="L50" s="11">
         <v>30.6</v>
       </c>
-      <c r="L50" s="10">
+      <c r="M50" s="10">
         <f t="shared" si="0"/>
         <v>0.76895424836601312</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="51" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A51" s="10" t="s">
         <v>62</v>
       </c>
@@ -5091,21 +5242,24 @@
         <v>80</v>
       </c>
       <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J51" s="11">
+      <c r="K51" s="11">
         <v>9.2799999999999994</v>
       </c>
-      <c r="K51" s="11">
+      <c r="L51" s="11">
         <v>21.13</v>
       </c>
-      <c r="L51" s="10">
+      <c r="M51" s="10">
         <f t="shared" si="0"/>
         <v>0.43918599148130621</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="11" customFormat="1" ht="17.5" customHeight="1">
+    <row r="52" spans="1:13" s="11" customFormat="1" ht="17.5" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>64</v>
       </c>
@@ -5116,21 +5270,24 @@
         <v>76</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J52" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="J52" s="11">
+      <c r="K52" s="11">
         <v>6.35</v>
       </c>
-      <c r="K52" s="11">
+      <c r="L52" s="11">
         <v>15.71</v>
       </c>
-      <c r="L52" s="10">
+      <c r="M52" s="10">
         <f t="shared" si="0"/>
         <v>0.40420114576702731</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="53" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A53" s="10" t="s">
         <v>65</v>
       </c>
@@ -5140,10 +5297,13 @@
       <c r="H53" s="10">
         <v>1</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="L53" s="10"/>
-    </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I53" s="10">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A54" s="10" t="s">
         <v>66</v>
       </c>
@@ -5153,21 +5313,24 @@
       <c r="H54" s="10">
         <v>1</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J54" s="11">
+      <c r="K54" s="11">
         <v>4.34</v>
       </c>
-      <c r="K54" s="11">
+      <c r="L54" s="11">
         <v>31.26</v>
       </c>
-      <c r="L54" s="10">
+      <c r="M54" s="10">
         <f t="shared" si="0"/>
         <v>0.13883557261676263</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="55" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A55" s="10" t="s">
         <v>67</v>
       </c>
@@ -5189,21 +5352,24 @@
       <c r="H55" s="10">
         <v>1</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="J55" s="11">
+      <c r="K55" s="11">
         <v>12.91</v>
       </c>
-      <c r="K55" s="11">
+      <c r="L55" s="11">
         <v>16.170000000000002</v>
       </c>
-      <c r="L55" s="10">
+      <c r="M55" s="10">
         <f t="shared" si="0"/>
         <v>0.79839208410636975</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="56" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
@@ -5216,81 +5382,85 @@
         <v>76</v>
       </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="J56" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J56" s="18">
+      <c r="K56" s="18">
         <v>8.09</v>
       </c>
-      <c r="K56" s="18">
+      <c r="L56" s="18">
         <v>17.27</v>
       </c>
-      <c r="L56" s="14">
+      <c r="M56" s="14">
         <f t="shared" si="0"/>
         <v>0.46844238563983787</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="57" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="58" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="59" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="60" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="61" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="62" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="63" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="64" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="65" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="66" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="67" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="68" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="69" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
       <c r="F69" s="34"/>
       <c r="H69" s="34"/>
-    </row>
-    <row r="70" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="I69" s="34"/>
+    </row>
+    <row r="70" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="18.45">
+    <row r="71" spans="1:13" ht="18.45">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -5303,40 +5473,41 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="73" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="74" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="75" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="76" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="77" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="78" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="79" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="80" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
@@ -6434,18 +6605,18 @@
     <row r="542" s="11" customFormat="1" ht="18.45"/>
     <row r="543" s="11" customFormat="1" ht="18.45"/>
     <row r="544" s="11" customFormat="1" ht="18.45"/>
-    <row r="545" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="546" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="547" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="548" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="549" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="550" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="551" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="552" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="553" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="554" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="555" spans="1:12" s="11" customFormat="1" ht="18.45"/>
-    <row r="556" spans="1:12" s="11" customFormat="1" ht="18.45">
+    <row r="545" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="546" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="547" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="548" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="549" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="550" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="551" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="552" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="553" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="554" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="555" spans="1:13" s="11" customFormat="1" ht="18.45"/>
+    <row r="556" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="B556" s="19"/>
       <c r="C556" s="19"/>
       <c r="D556" s="19"/>
@@ -6457,8 +6628,9 @@
       <c r="J556" s="19"/>
       <c r="K556" s="19"/>
       <c r="L556" s="19"/>
-    </row>
-    <row r="557" spans="1:12" s="11" customFormat="1" ht="18.45">
+      <c r="M556" s="19"/>
+    </row>
+    <row r="557" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A557" s="19"/>
       <c r="B557" s="19"/>
       <c r="C557" s="19"/>
@@ -6471,10 +6643,11 @@
       <c r="J557" s="19"/>
       <c r="K557" s="19"/>
       <c r="L557" s="19"/>
-    </row>
-    <row r="558" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="559" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="560" spans="1:12" s="19" customFormat="1" ht="18.45"/>
+      <c r="M557" s="19"/>
+    </row>
+    <row r="558" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="559" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="560" spans="1:13" s="19" customFormat="1" ht="18.45"/>
     <row r="561" s="19" customFormat="1" ht="18.45"/>
     <row r="562" s="19" customFormat="1" ht="18.45"/>
     <row r="563" s="19" customFormat="1" ht="18.45"/>
@@ -6651,11 +6824,11 @@
     <row r="734" s="19" customFormat="1" ht="18.45"/>
     <row r="735" s="19" customFormat="1" ht="18.45"/>
     <row r="736" s="19" customFormat="1" ht="18.45"/>
-    <row r="737" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="738" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="739" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="740" spans="1:12" s="19" customFormat="1" ht="18.45"/>
-    <row r="741" spans="1:12" s="19" customFormat="1" ht="18.45">
+    <row r="737" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="738" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="739" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="740" spans="1:13" s="19" customFormat="1" ht="18.45"/>
+    <row r="741" spans="1:13" s="19" customFormat="1" ht="18.45">
       <c r="B741" s="34"/>
       <c r="C741" s="34"/>
       <c r="D741" s="34"/>
@@ -6667,8 +6840,9 @@
       <c r="J741" s="34"/>
       <c r="K741" s="34"/>
       <c r="L741" s="34"/>
-    </row>
-    <row r="742" spans="1:12" s="19" customFormat="1" ht="18.45">
+      <c r="M741" s="34"/>
+    </row>
+    <row r="742" spans="1:13" s="19" customFormat="1" ht="18.45">
       <c r="A742" s="34"/>
       <c r="B742" s="34"/>
       <c r="C742" s="34"/>
@@ -6681,27 +6855,28 @@
       <c r="J742" s="34"/>
       <c r="K742" s="34"/>
       <c r="L742" s="34"/>
+      <c r="M742" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:M1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
     <mergeCell ref="H2:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I565" xr:uid="{C05D7CC2-D764-4152-BD39-BF083CE22085}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J565" xr:uid="{C05D7CC2-D764-4152-BD39-BF083CE22085}">
       <formula1>"Cortex,Brut,Retouche,C+B,C+R,B+R"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G518" xr:uid="{7A1165D5-762E-4197-929D-2C12AFDF03D4}">
@@ -6720,10 +6895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6BE47-4A50-4C52-B253-56BD6042B30C}">
-  <dimension ref="A1:BN807"/>
+  <dimension ref="A1:BO807"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AS28" sqref="AS28"/>
+    <sheetView topLeftCell="AJ28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BO6" sqref="BO6:BO58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6"/>
@@ -6758,342 +6933,342 @@
     <col min="63" max="16384" width="8.640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="31" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:67" ht="31" customHeight="1">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58" t="s">
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-    </row>
-    <row r="2" spans="1:66" s="36" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="59" t="s">
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+    </row>
+    <row r="2" spans="1:67" s="36" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A2" s="51"/>
+      <c r="B2" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="46" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="59" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="46" t="s">
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-      <c r="AK2" s="46"/>
-      <c r="AL2" s="46"/>
-      <c r="AM2" s="46"/>
-      <c r="AN2" s="46"/>
-      <c r="AO2" s="46"/>
-      <c r="AP2" s="59" t="s">
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="46" t="s">
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="46"/>
-      <c r="BD2" s="46"/>
-      <c r="BE2" s="46"/>
-      <c r="BF2" s="46"/>
-      <c r="BG2" s="46"/>
-      <c r="BH2" s="46"/>
-      <c r="BI2" s="46"/>
-    </row>
-    <row r="3" spans="1:66" s="36" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="51" t="s">
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+    </row>
+    <row r="3" spans="1:67" s="36" customFormat="1" ht="17.149999999999999" customHeight="1">
+      <c r="A3" s="51"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="46" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="51" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AA3" s="51"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="46" t="s">
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="46" t="s">
+      <c r="AI3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="46" t="s">
+      <c r="AJ3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="46" t="s">
+      <c r="AK3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="46"/>
-      <c r="AO3" s="46"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="51" t="s">
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="AR3" s="51" t="s">
+      <c r="AR3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="46" t="s">
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="BC3" s="46" t="s">
+      <c r="BC3" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="46" t="s">
+      <c r="BD3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="BE3" s="46" t="s">
+      <c r="BE3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-    </row>
-    <row r="4" spans="1:66" s="36" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51" t="s">
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+    </row>
+    <row r="4" spans="1:67" s="36" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A4" s="51"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46" t="b">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46" t="s">
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="59"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51" t="s">
+      <c r="V4" s="63"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51" t="s">
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46" t="b">
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46"/>
-      <c r="AO4" s="46" t="s">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51" t="s">
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51" t="s">
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="46"/>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46" t="b">
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51" t="b">
         <v>1</v>
       </c>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
-      <c r="BI4" s="46" t="s">
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:66" s="36" customFormat="1" ht="12.65" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="51"/>
+    <row r="5" spans="1:67" s="36" customFormat="1" ht="12.65" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7124,9 +7299,9 @@
       <c r="M5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
       <c r="Q5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7139,9 +7314,9 @@
       <c r="T5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="U5" s="46"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="56"/>
       <c r="X5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7172,9 +7347,9 @@
       <c r="AG5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="46"/>
-      <c r="AJ5" s="46"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
       <c r="AK5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7187,9 +7362,9 @@
       <c r="AN5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="AO5" s="46"/>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="56"/>
       <c r="AR5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7220,9 +7395,9 @@
       <c r="BA5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BB5" s="46"/>
-      <c r="BC5" s="46"/>
-      <c r="BD5" s="46"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
       <c r="BE5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7235,9 +7410,9 @@
       <c r="BH5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="BI5" s="46"/>
-    </row>
-    <row r="6" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BI5" s="51"/>
+    </row>
+    <row r="6" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7362,8 +7537,12 @@
         <f t="shared" ref="BM6" si="2">F6+Z6+AT6</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO6" s="11">
+        <f>BA6+AG6+M6+H6+AB6+AV6</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -7468,8 +7647,12 @@
         <f t="shared" ref="BM7:BM51" si="8">F7+Z7+AT7</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO7" s="11">
+        <f t="shared" ref="BO7:BO58" si="9">BA7+AG7+M7+H7+AB7+AV7</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -7629,8 +7812,12 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO8" s="11">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -7718,7 +7905,7 @@
         <v>6</v>
       </c>
       <c r="AB9" s="11">
-        <f t="shared" ref="AB9:AB13" si="9">X9+Y9+Z9+AA9</f>
+        <f t="shared" ref="AB9:AB13" si="10">X9+Y9+Z9+AA9</f>
         <v>10</v>
       </c>
       <c r="AC9" s="11">
@@ -7734,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="10">
-        <f t="shared" ref="AG9:AG13" si="10">AC9+AD9+AE9+AF9</f>
+        <f t="shared" ref="AG9:AG13" si="11">AC9+AD9+AE9+AF9</f>
         <v>4</v>
       </c>
       <c r="AH9" s="7">
@@ -7745,7 +7932,7 @@
         <v>21.69</v>
       </c>
       <c r="AJ9" s="8">
-        <f t="shared" ref="AJ9:AJ19" si="11">AI9*SIN(AN9*PI()/180)</f>
+        <f t="shared" ref="AJ9:AJ19" si="12">AI9*SIN(AN9*PI()/180)</f>
         <v>20.466868503676828</v>
       </c>
       <c r="AK9" s="8">
@@ -7758,7 +7945,7 @@
         <v>58</v>
       </c>
       <c r="AN9" s="8">
-        <f t="shared" ref="AN9:AN19" si="12">AVERAGE(AK9,AL9,AM9)</f>
+        <f t="shared" ref="AN9:AN19" si="13">AVERAGE(AK9,AL9,AM9)</f>
         <v>70.666666666666671</v>
       </c>
       <c r="AO9" s="8">
@@ -7791,11 +7978,15 @@
         <v>8</v>
       </c>
       <c r="BN9" s="11">
-        <f t="shared" ref="BN9:BN36" si="13">G9+AA9+AU9</f>
+        <f>G9+AA9+AU9</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO9" s="11">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -7883,7 +8074,7 @@
         <v>6</v>
       </c>
       <c r="AB10" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="AC10" s="11">
@@ -7899,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AH10" s="7">
@@ -7910,7 +8101,7 @@
         <v>23.3</v>
       </c>
       <c r="AJ10" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.986078198970496</v>
       </c>
       <c r="AK10" s="8">
@@ -7923,7 +8114,7 @@
         <v>69</v>
       </c>
       <c r="AN10" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70.666666666666671</v>
       </c>
       <c r="AO10" s="8">
@@ -7956,11 +8147,15 @@
         <v>10</v>
       </c>
       <c r="BN10" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="BN9:BN36" si="14">G10+AA10+AU10</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO10" s="11">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -8057,8 +8252,12 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO11" s="11">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -8163,11 +8362,15 @@
         <v>6</v>
       </c>
       <c r="BN12" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO12" s="11">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -8255,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AB13" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AC13" s="11">
@@ -8271,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="AH13" s="7">
@@ -8282,7 +8485,7 @@
         <v>22</v>
       </c>
       <c r="AJ13" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.406987152756127</v>
       </c>
       <c r="AK13" s="8">
@@ -8295,7 +8498,7 @@
         <v>92</v>
       </c>
       <c r="AN13" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>76.666666666666671</v>
       </c>
       <c r="AO13" s="8">
@@ -8328,11 +8531,15 @@
         <v>14</v>
       </c>
       <c r="BN13" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO13" s="11">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
@@ -8436,8 +8643,12 @@
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO14" s="11">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
@@ -8542,8 +8753,12 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO15" s="11">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -8648,11 +8863,15 @@
         <v>4</v>
       </c>
       <c r="BN16" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO16" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
@@ -8758,11 +8977,15 @@
         <v>7</v>
       </c>
       <c r="BN17" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO17" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
@@ -8867,8 +9090,12 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO18" s="11">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
@@ -8981,7 +9208,7 @@
         <v>16.27</v>
       </c>
       <c r="AJ19" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.824633611506</v>
       </c>
       <c r="AK19" s="8">
@@ -8994,7 +9221,7 @@
         <v>62</v>
       </c>
       <c r="AN19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>65.666666666666671</v>
       </c>
       <c r="AO19" s="8">
@@ -9027,11 +9254,15 @@
         <v>6</v>
       </c>
       <c r="BN19" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO19" s="11">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -9137,11 +9368,15 @@
         <v>7</v>
       </c>
       <c r="BN20" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO20" s="11">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
@@ -9254,7 +9489,7 @@
         <v>11.03</v>
       </c>
       <c r="AJ21" s="8">
-        <f t="shared" ref="AJ21:AJ28" si="14">AI21*SIN(AN21*PI()/180)</f>
+        <f t="shared" ref="AJ21:AJ28" si="15">AI21*SIN(AN21*PI()/180)</f>
         <v>10.686656717561684</v>
       </c>
       <c r="AK21" s="8">
@@ -9267,7 +9502,7 @@
         <v>74</v>
       </c>
       <c r="AN21" s="8">
-        <f t="shared" ref="AN21:AN33" si="15">AVERAGE(AK21,AL21,AM21)</f>
+        <f t="shared" ref="AN21:AN33" si="16">AVERAGE(AK21,AL21,AM21)</f>
         <v>75.666666666666671</v>
       </c>
       <c r="AO21" s="8">
@@ -9299,8 +9534,12 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO21" s="11">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A22" s="6" t="s">
         <v>44</v>
       </c>
@@ -9406,11 +9645,15 @@
         <v>4</v>
       </c>
       <c r="BN22" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO22" s="11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
@@ -9511,8 +9754,12 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO23" s="11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
@@ -9612,8 +9859,12 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO24" s="11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -9726,7 +9977,7 @@
         <v>10.86</v>
       </c>
       <c r="AJ25" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.842502567218018</v>
       </c>
       <c r="AK25" s="8">
@@ -9739,7 +9990,7 @@
         <v>61</v>
       </c>
       <c r="AN25" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>65</v>
       </c>
       <c r="AO25" s="8">
@@ -9772,11 +10023,15 @@
         <v>5</v>
       </c>
       <c r="BN25" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO25" s="11">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A26" s="6" t="s">
         <v>31</v>
       </c>
@@ -9889,7 +10144,7 @@
         <v>33.4</v>
       </c>
       <c r="AJ26" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>29.306008291683035</v>
       </c>
       <c r="AK26" s="8">
@@ -9902,7 +10157,7 @@
         <v>66</v>
       </c>
       <c r="AN26" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>61.333333333333336</v>
       </c>
       <c r="AO26" s="8">
@@ -9934,8 +10189,12 @@
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO26" s="11">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A27" s="6" t="s">
         <v>32</v>
       </c>
@@ -10048,7 +10307,7 @@
         <v>26.14</v>
       </c>
       <c r="AJ27" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>24.665926357128274</v>
       </c>
       <c r="AK27" s="8">
@@ -10061,7 +10320,7 @@
         <v>76</v>
       </c>
       <c r="AN27" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>70.666666666666671</v>
       </c>
       <c r="AO27" s="8">
@@ -10094,11 +10353,15 @@
         <v>9</v>
       </c>
       <c r="BN27" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO27" s="11">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A28" s="6" t="s">
         <v>33</v>
       </c>
@@ -10209,7 +10472,7 @@
         <v>26.74</v>
       </c>
       <c r="AJ28" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>25.019268053549066</v>
       </c>
       <c r="AK28" s="8">
@@ -10222,7 +10485,7 @@
         <v>66</v>
       </c>
       <c r="AN28" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>69.333333333333329</v>
       </c>
       <c r="AO28" s="8">
@@ -10255,11 +10518,15 @@
         <v>13</v>
       </c>
       <c r="BN28" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO28" s="11">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
@@ -10363,8 +10630,12 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO29" s="11">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -10470,11 +10741,15 @@
         <v>6</v>
       </c>
       <c r="BN30" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO30" s="11">
+        <f t="shared" si="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A31" s="6" t="s">
         <v>36</v>
       </c>
@@ -10580,11 +10855,15 @@
         <v>5</v>
       </c>
       <c r="BN31" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO31" s="11">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A32" s="6" t="s">
         <v>37</v>
       </c>
@@ -10709,7 +10988,7 @@
         <v>93</v>
       </c>
       <c r="AN32" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>82.666666666666671</v>
       </c>
       <c r="AO32" s="8">
@@ -10792,8 +11071,12 @@
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO32" s="11">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
@@ -10917,7 +11200,7 @@
         <v>68</v>
       </c>
       <c r="AN33" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>73</v>
       </c>
       <c r="AO33" s="8">
@@ -11001,11 +11284,15 @@
         <v>25</v>
       </c>
       <c r="BN33" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO33" s="11">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A34" s="6" t="s">
         <v>40</v>
       </c>
@@ -11110,8 +11397,12 @@
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO34" s="11">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A35" s="6" t="s">
         <v>42</v>
       </c>
@@ -11216,8 +11507,12 @@
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO35" s="11">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
@@ -11323,11 +11618,15 @@
         <v>11</v>
       </c>
       <c r="BN36" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO36" s="11">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
@@ -11428,8 +11727,12 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO37" s="11">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A38" s="11" t="s">
         <v>158</v>
       </c>
@@ -11526,8 +11829,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO38" s="11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A39" s="11" t="s">
         <v>47</v>
       </c>
@@ -11604,7 +11911,7 @@
         <v>12.38</v>
       </c>
       <c r="AJ39" s="8">
-        <f t="shared" ref="AJ39:AJ47" si="16">AI39*SIN(AN39*PI()/180)</f>
+        <f t="shared" ref="AJ39:AJ47" si="17">AI39*SIN(AN39*PI()/180)</f>
         <v>11.155333523967494</v>
       </c>
       <c r="AK39" s="8">
@@ -11640,8 +11947,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO39" s="11">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A40" s="11" t="s">
         <v>50</v>
       </c>
@@ -11732,8 +12043,12 @@
         <f t="shared" si="5"/>
         <v>64.333333333333329</v>
       </c>
-    </row>
-    <row r="41" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO40" s="11">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A41" s="11" t="s">
         <v>49</v>
       </c>
@@ -11834,8 +12149,12 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO41" s="11">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A42" s="11" t="s">
         <v>51</v>
       </c>
@@ -11931,8 +12250,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO42" s="11">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -12043,7 +12366,7 @@
         <v>8.59</v>
       </c>
       <c r="AJ43" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1833621239683048</v>
       </c>
       <c r="AK43" s="8">
@@ -12079,8 +12402,12 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO43" s="11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A44" s="11" t="s">
         <v>53</v>
       </c>
@@ -12173,8 +12500,12 @@
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="45" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO44" s="11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A45" s="11" t="s">
         <v>54</v>
       </c>
@@ -12270,8 +12601,12 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO45" s="11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A46" s="11" t="s">
         <v>55</v>
       </c>
@@ -12367,8 +12702,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO46" s="11">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A47" s="11" t="s">
         <v>56</v>
       </c>
@@ -12479,7 +12818,7 @@
         <v>17.559999999999999</v>
       </c>
       <c r="AJ47" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>15.54751206824754</v>
       </c>
       <c r="AK47" s="8">
@@ -12519,8 +12858,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:66" s="11" customFormat="1" ht="18.45">
+      <c r="BO47" s="11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A48" s="11" t="s">
         <v>57</v>
       </c>
@@ -12620,8 +12963,12 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO48" s="11">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A49" s="11" t="s">
         <v>58</v>
       </c>
@@ -12733,7 +13080,7 @@
         <v>15.99</v>
       </c>
       <c r="AJ49" s="8">
-        <f t="shared" ref="AJ49:AJ55" si="17">AI49*SIN(AN49*PI()/180)</f>
+        <f t="shared" ref="AJ49:AJ55" si="18">AI49*SIN(AN49*PI()/180)</f>
         <v>15.207393695559505</v>
       </c>
       <c r="AK49" s="8">
@@ -12769,8 +13116,12 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO49" s="11">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A50" s="11" t="s">
         <v>59</v>
       </c>
@@ -12870,8 +13221,12 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO50" s="11">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A51" s="11" t="s">
         <v>60</v>
       </c>
@@ -12972,8 +13327,12 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO51" s="11">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A52" s="11" t="s">
         <v>61</v>
       </c>
@@ -13069,8 +13428,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO52" s="11">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A53" s="11" t="s">
         <v>62</v>
       </c>
@@ -13163,8 +13526,12 @@
         <f t="shared" si="5"/>
         <v>72.333333333333329</v>
       </c>
-    </row>
-    <row r="54" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO53" s="11">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A54" s="11" t="s">
         <v>64</v>
       </c>
@@ -13260,8 +13627,12 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO54" s="11">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A55" s="11" t="s">
         <v>65</v>
       </c>
@@ -13372,7 +13743,7 @@
         <v>22.87</v>
       </c>
       <c r="AJ55" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>21.905400457112354</v>
       </c>
       <c r="AK55" s="8">
@@ -13408,8 +13779,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO55" s="11">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A56" s="11" t="s">
         <v>66</v>
       </c>
@@ -13502,8 +13877,12 @@
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO56" s="11">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A57" s="11" t="s">
         <v>67</v>
       </c>
@@ -13597,8 +13976,12 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO57" s="11">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A58" s="18" t="s">
         <v>68</v>
       </c>
@@ -13714,8 +14097,12 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:65" s="11" customFormat="1" ht="18.45">
+      <c r="BO58" s="11">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
@@ -13741,7 +14128,7 @@
       <c r="BH59" s="8"/>
       <c r="BI59" s="8"/>
     </row>
-    <row r="60" spans="1:65" s="11" customFormat="1" ht="18.45">
+    <row r="60" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
@@ -13767,7 +14154,7 @@
       <c r="BH60" s="8"/>
       <c r="BI60" s="8"/>
     </row>
-    <row r="61" spans="1:65" s="11" customFormat="1" ht="18.45">
+    <row r="61" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
@@ -13793,7 +14180,7 @@
       <c r="BH61" s="8"/>
       <c r="BI61" s="8"/>
     </row>
-    <row r="62" spans="1:65" s="11" customFormat="1" ht="18.45">
+    <row r="62" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -13819,7 +14206,7 @@
       <c r="BH62" s="8"/>
       <c r="BI62" s="8"/>
     </row>
-    <row r="63" spans="1:65" s="11" customFormat="1" ht="18.45">
+    <row r="63" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -13845,7 +14232,7 @@
       <c r="BH63" s="8"/>
       <c r="BI63" s="8"/>
     </row>
-    <row r="64" spans="1:65" s="11" customFormat="1" ht="18.45">
+    <row r="64" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
@@ -26035,33 +26422,6 @@
     <row r="807" s="19" customFormat="1" ht="18.45"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AQ2:BA2"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BD3:BD5"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="AW4:BA4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="V1:AO1"/>
@@ -26078,6 +26438,33 @@
     <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BD3:BD5"/>
+    <mergeCell ref="BE3:BI3"/>
+    <mergeCell ref="AW4:BA4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BI5"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AR4:AV4"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26088,8 +26475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF8AEEEC-875A-4814-ABE3-DA26D0B826FE}">
   <dimension ref="A1:AC592"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="W49" sqref="W49"/>
+    <sheetView topLeftCell="D19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6"/>
@@ -26123,158 +26510,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="36" customFormat="1" ht="18.649999999999999" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="66" t="s">
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="70" t="s">
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="73" t="s">
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="76" t="s">
+      <c r="AC1" s="65" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="52" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="W2" s="57"/>
+      <c r="X2" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="77"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="1:29" s="36" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="52" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="82" t="s">
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="82" t="s">
+      <c r="W3" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="77"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="66"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="37" t="s">
         <v>141</v>
       </c>
@@ -26311,14 +26698,14 @@
       <c r="U4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="78"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="67"/>
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="18.45">
       <c r="A5" s="1" t="s">
@@ -30903,6 +31290,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="AA1:AA4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="AC1:AC4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -30919,15 +31315,6 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="AA1:AA4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Longtan site lithic data-Quina scrapers.xlsx
+++ b/Longtan site lithic data-Quina scrapers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\龙潭文章-正文&amp;补充材料\龙潭发掘Quina标本数据-2023.8\Lithic-data-Longtan-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C09CEF4-128E-4AD2-A107-5D5014C4BD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4583A24-A9BC-4F9A-A764-635F9C61ADED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="2" xr2:uid="{94725939-6E99-4DB9-9642-3AC8BCD644A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Size&amp;Typo" sheetId="1" r:id="rId1"/>
@@ -1316,6 +1316,12 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,46 +1361,10 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,6 +1385,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,16 +1397,43 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2158,26 +2158,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="50" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="51"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="31" t="s">
         <v>93</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="F2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="G2" s="51"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>45</v>
       </c>
@@ -3815,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12B752F-B9A2-43CB-B896-3A979A37B657}">
   <dimension ref="A1:AB742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I13" activeCellId="4" sqref="I35 I27 I23 I17:I19 I13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6"/>
@@ -3837,81 +3837,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="33" customFormat="1" ht="30.65" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="53" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="53"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="45"/>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
     </row>
     <row r="2" spans="1:13" s="33" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="60" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="57" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="21.65" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="4" spans="1:13" s="11" customFormat="1" ht="18.45">
       <c r="A4" s="4" t="s">
@@ -6897,8 +6897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF6BE47-4A50-4C52-B253-56BD6042B30C}">
   <dimension ref="A1:BO807"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BO6" sqref="BO6:BO58"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C3" activeCellId="2" sqref="AQ1:AQ1048576 W1:W1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.6"/>
@@ -6934,341 +6934,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="31" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64" t="s">
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="65"/>
+      <c r="AU1" s="65"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="65"/>
+      <c r="AX1" s="65"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="65"/>
+      <c r="BA1" s="65"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="65"/>
+      <c r="BD1" s="65"/>
+      <c r="BE1" s="65"/>
+      <c r="BF1" s="65"/>
+      <c r="BG1" s="65"/>
+      <c r="BH1" s="65"/>
+      <c r="BI1" s="65"/>
     </row>
     <row r="2" spans="1:67" s="36" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="51" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="63" t="s">
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="51" t="s">
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="63" t="s">
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="51" t="s">
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
+      <c r="BB2" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
+      <c r="BC2" s="53"/>
+      <c r="BD2" s="53"/>
+      <c r="BE2" s="53"/>
+      <c r="BF2" s="53"/>
+      <c r="BG2" s="53"/>
+      <c r="BH2" s="53"/>
+      <c r="BI2" s="53"/>
     </row>
     <row r="3" spans="1:67" s="36" customFormat="1" ht="17.149999999999999" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="56" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="51" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="56" t="s">
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="51" t="s">
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="51" t="s">
+      <c r="AI3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="51" t="s">
+      <c r="AJ3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="AK3" s="51" t="s">
+      <c r="AK3" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="56" t="s">
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="53"/>
+      <c r="AO3" s="53"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AR3" s="56" t="s">
+      <c r="AR3" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="56"/>
-      <c r="AZ3" s="56"/>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="51" t="s">
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="BC3" s="51" t="s">
+      <c r="BC3" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="BD3" s="51" t="s">
+      <c r="BD3" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="BE3" s="51" t="s">
+      <c r="BE3" s="53" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="51"/>
-      <c r="BH3" s="51"/>
-      <c r="BI3" s="51"/>
+      <c r="BF3" s="53"/>
+      <c r="BG3" s="53"/>
+      <c r="BH3" s="53"/>
+      <c r="BI3" s="53"/>
     </row>
     <row r="4" spans="1:67" s="36" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51" t="b">
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51" t="s">
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="V4" s="63"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56" t="s">
+      <c r="V4" s="66"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56" t="s">
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="51" t="b">
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51" t="s">
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56" t="s">
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56" t="s">
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="58"/>
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="56"/>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51" t="b">
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="58"/>
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="51"/>
-      <c r="BI4" s="51" t="s">
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:67" s="36" customFormat="1" ht="12.65" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7299,9 +7299,9 @@
       <c r="M5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7314,9 +7314,9 @@
       <c r="T5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="U5" s="51"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="56"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="58"/>
       <c r="X5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7347,9 +7347,9 @@
       <c r="AG5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="51"/>
-      <c r="AJ5" s="51"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
       <c r="AK5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7362,9 +7362,9 @@
       <c r="AN5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="56"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="58"/>
       <c r="AR5" s="32" t="s">
         <v>126</v>
       </c>
@@ -7395,9 +7395,9 @@
       <c r="BA5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="51"/>
-      <c r="BD5" s="51"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
       <c r="BE5" s="30" t="s">
         <v>119</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="BH5" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="BI5" s="51"/>
+      <c r="BI5" s="53"/>
     </row>
     <row r="6" spans="1:67" s="11" customFormat="1" ht="18.45">
       <c r="A6" s="1" t="s">
@@ -8147,7 +8147,7 @@
         <v>10</v>
       </c>
       <c r="BN10" s="11">
-        <f t="shared" ref="BN9:BN36" si="14">G10+AA10+AU10</f>
+        <f t="shared" ref="BN10:BN36" si="14">G10+AA10+AU10</f>
         <v>17</v>
       </c>
       <c r="BO10" s="11">
@@ -26422,6 +26422,33 @@
     <row r="807" s="19" customFormat="1" ht="18.45"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AR4:AV4"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="AP2:AP5"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AI3:AI5"/>
+    <mergeCell ref="AJ3:AJ5"/>
+    <mergeCell ref="AK3:AO3"/>
+    <mergeCell ref="BB3:BB5"/>
+    <mergeCell ref="BC3:BC5"/>
+    <mergeCell ref="BD3:BD5"/>
+    <mergeCell ref="BE3:BI3"/>
+    <mergeCell ref="AW4:BA4"/>
+    <mergeCell ref="BE4:BH4"/>
+    <mergeCell ref="BI4:BI5"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="V1:AO1"/>
@@ -26438,33 +26465,6 @@
     <mergeCell ref="AH2:AO2"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="BB3:BB5"/>
-    <mergeCell ref="BC3:BC5"/>
-    <mergeCell ref="BD3:BD5"/>
-    <mergeCell ref="BE3:BI3"/>
-    <mergeCell ref="AW4:BA4"/>
-    <mergeCell ref="BE4:BH4"/>
-    <mergeCell ref="BI4:BI5"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AR4:AV4"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="AP2:AP5"/>
-    <mergeCell ref="AQ2:BA2"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="AO4:AO5"/>
-    <mergeCell ref="AH3:AH5"/>
-    <mergeCell ref="AI3:AI5"/>
-    <mergeCell ref="AJ3:AJ5"/>
-    <mergeCell ref="AK3:AO3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26510,158 +26510,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="36" customFormat="1" ht="18.649999999999999" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="68" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="72" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="75" t="s">
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="75" t="s">
+      <c r="AB1" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="65" t="s">
+      <c r="AC1" s="83" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="36" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="68" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="57" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57" t="s">
+      <c r="W2" s="59"/>
+      <c r="X2" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="57" t="s">
+      <c r="Y2" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="Z2" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="66"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="84"/>
     </row>
     <row r="3" spans="1:29" s="36" customFormat="1" ht="19" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="81" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="57" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57" t="s">
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57" t="s">
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="76" t="s">
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="76" t="s">
+      <c r="W3" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="66"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="84"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="67"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="37" t="s">
         <v>141</v>
       </c>
@@ -26698,14 +26698,14 @@
       <c r="U4" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="67"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="85"/>
     </row>
     <row r="5" spans="1:29" s="11" customFormat="1" ht="18.45">
       <c r="A5" s="1" t="s">
@@ -31290,15 +31290,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="AA1:AA4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="AC1:AC4"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
@@ -31315,6 +31306,15 @@
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="AA1:AA4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
